--- a/graduale-tex/graduale-chants/passionjohnharmony.xlsx
+++ b/graduale-tex/graduale-chants/passionjohnharmony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atelier/Documents/GitHub/atelier/graduale-tex/graduale-chants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D562090-2373-7E4F-A286-10D6840C90DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC708FD-69C4-4A48-8B28-E7C1D96F7824}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{80A242BE-BC85-E242-B159-534B16398792}"/>
   </bookViews>
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD678490-57F0-D142-ADBF-4F6CB86EF6C0}">
   <dimension ref="A1:B260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
